--- a/top100 variable.xlsx
+++ b/top100 variable.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20475" windowHeight="11655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="5808"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>公司代號</t>
   </si>
@@ -28,9 +29,6 @@
   </si>
   <si>
     <t>資產總額 (千元)</t>
-  </si>
-  <si>
-    <t>股東權益總額(千元)</t>
   </si>
   <si>
     <t>營業收入淨額(千元)</t>
@@ -67,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,6 +119,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -168,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,13 +415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,11 +467,8 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -510,27 +511,24 @@
       <c r="N2">
         <v>13</v>
       </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="J3">
         <v>6</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
         <v>2</v>
       </c>
     </row>
@@ -546,7 +544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -559,7 +557,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
